--- a/biology/Zoologie/Harpalus_anxius/Harpalus_anxius.xlsx
+++ b/biology/Zoologie/Harpalus_anxius/Harpalus_anxius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpalus anxius est une espèce de Coléoptères de la famille des Carabidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpalus anxius comprend des coléoptères de couleur noire dont la taille est de 6,8 à 8,2 mm. Il s'agit d'une espèce de coléoptère phytophage et xérophile originaire de l'Écozone paléarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpalus anxius comprend des coléoptères de couleur noire dont la taille est de 6,8 à 8,2 mm. Il s'agit d'une espèce de coléoptère phytophage et xérophile originaire de l'Écozone paléarctique.
 </t>
         </is>
       </c>
@@ -542,12 +556,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Harpalus anxius (Duftschmid, 1812)[2].
-L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus anxius Duftschmid, 1812[2].
-Synonymie
-Harpalus anxius a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Harpalus anxius (Duftschmid, 1812).
+L'espèce a été initialement classée dans le genre Carabus sous le protonyme Carabus anxius Duftschmid, 1812.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Harpalus_anxius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_anxius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Harpalus anxius a pour synonymes :
 Carabus anxius Duftschmid, 1812
 Carabus piger Duftschmid, 1812
 Carabus sericeus Duftschmid, 1812
@@ -561,37 +612,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Harpalus_anxius</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harpalus_anxius</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition comprend l'Europe et le Proche-Orient. En Europe, il n'est absent que dans les pays ou îles suivants : Andorre, les Açores, les Canaries, les Channel Islands, Crète, Cyclades, Chypre, Dodécanèse, les Îles Féroé, Franz Josef Land, Gibraltar, Islande, Madère, Malte, Monaco, les îles du Nord de la mer Égée, la Norvège, la Nouvelle-Zélande, le Portugal, Saint-Marin, les îles Sauvages, la Sicile, Svalbard et Jan Mayen, et la Cité du Vatican. Sa présence aux Îles Baléares et en Sardaigne est douteuse. En Irlande, on le trouve dans les comtés de Meath et Kerry[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -613,12 +633,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition comprend l'Europe et le Proche-Orient. En Europe, il n'est absent que dans les pays ou îles suivants : Andorre, les Açores, les Canaries, les Channel Islands, Crète, Cyclades, Chypre, Dodécanèse, les Îles Féroé, Franz Josef Land, Gibraltar, Islande, Madère, Malte, Monaco, les îles du Nord de la mer Égée, la Norvège, la Nouvelle-Zélande, le Portugal, Saint-Marin, les îles Sauvages, la Sicile, Svalbard et Jan Mayen, et la Cité du Vatican. Sa présence aux Îles Baléares et en Sardaigne est douteuse. En Irlande, on le trouve dans les comtés de Meath et Kerry.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Harpalus_anxius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Harpalus_anxius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpalus anxius préfère les landes sableuses et les dunes[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpalus anxius préfère les landes sableuses et les dunes.
 </t>
         </is>
       </c>
